--- a/Data/vendedores.xlsx
+++ b/Data/vendedores.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Nome</t>
   </si>
   <si>
     <t>DataUltimaVenda</t>
-  </si>
-  <si>
-    <t>ValorVendido</t>
   </si>
   <si>
     <t>DescontoAplicado</t>
@@ -44,46 +41,16 @@
     <t>Ana Silva</t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
     <t>Carlos Souza</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>4.00</t>
   </si>
   <si>
     <t>Fernanda Lima</t>
   </si>
   <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
     <t>João Martins</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>ValorDaVenda</t>
   </si>
 </sst>
 </file>
@@ -130,10 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -415,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +397,10 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,18 +408,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>45174</v>
@@ -458,15 +428,16 @@
         <v>1500</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>45191</v>
@@ -475,15 +446,16 @@
         <v>1750</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>45209</v>
@@ -492,15 +464,16 @@
         <v>2000</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45224</v>
@@ -509,15 +482,16 @@
         <v>2200</v>
       </c>
       <c r="D5" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.5</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>45235</v>
@@ -526,15 +500,16 @@
         <v>1800</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>45250</v>
@@ -543,15 +518,16 @@
         <v>1900</v>
       </c>
       <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>45184</v>
@@ -560,15 +536,16 @@
         <v>2500</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>45197</v>
@@ -577,15 +554,16 @@
         <v>2650</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>45214</v>
@@ -594,15 +572,16 @@
         <v>2700</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>45228</v>
@@ -611,15 +590,16 @@
         <v>2850</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>45242</v>
@@ -628,15 +608,16 @@
         <v>3000</v>
       </c>
       <c r="D12" s="2">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>45255</v>
@@ -645,15 +626,16 @@
         <v>3200</v>
       </c>
       <c r="D13" s="2">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>45179</v>
@@ -662,15 +644,16 @@
         <v>3500</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>45189</v>
@@ -679,15 +662,16 @@
         <v>3600</v>
       </c>
       <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>45204</v>
@@ -696,15 +680,16 @@
         <v>4000</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>45220</v>
@@ -713,15 +698,16 @@
         <v>4100</v>
       </c>
       <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>45238</v>
@@ -730,15 +716,16 @@
         <v>3700</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>45257</v>
@@ -747,15 +734,16 @@
         <v>3800</v>
       </c>
       <c r="D19" s="2">
+        <v>107</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>45181</v>
@@ -764,15 +752,16 @@
         <v>1800</v>
       </c>
       <c r="D20" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>45199</v>
@@ -781,15 +770,16 @@
         <v>1900</v>
       </c>
       <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>45210</v>
@@ -798,15 +788,16 @@
         <v>1950</v>
       </c>
       <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>45222</v>
@@ -815,15 +806,16 @@
         <v>2100</v>
       </c>
       <c r="D23" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>45232</v>
@@ -832,15 +824,16 @@
         <v>2250</v>
       </c>
       <c r="D24" s="2">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>45248</v>
@@ -849,11 +842,12 @@
         <v>2350</v>
       </c>
       <c r="D25" s="2">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Data/vendedores.xlsx
+++ b/Data/vendedores.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>Nome</t>
   </si>
   <si>
     <t>DataUltimaVenda</t>
-  </si>
-  <si>
-    <t>DescontoAplicado</t>
-  </si>
-  <si>
-    <t>JurosAplicado</t>
   </si>
   <si>
     <t>Ana Silva</t>
@@ -50,7 +44,7 @@
     <t>João Martins</t>
   </si>
   <si>
-    <t>ValorDaVenda</t>
+    <t>Valor Vendido</t>
   </si>
 </sst>
 </file>
@@ -97,11 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -384,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,12 +388,10 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,18 +399,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>45174</v>
@@ -427,17 +412,11 @@
       <c r="C2" s="2">
         <v>1500</v>
       </c>
-      <c r="D2" s="2">
-        <v>110</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45191</v>
@@ -445,17 +424,11 @@
       <c r="C3" s="2">
         <v>1750</v>
       </c>
-      <c r="D3" s="2">
-        <v>105</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>45209</v>
@@ -463,17 +436,11 @@
       <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D4" s="2">
-        <v>115</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>45224</v>
@@ -481,17 +448,11 @@
       <c r="C5" s="2">
         <v>2200</v>
       </c>
-      <c r="D5" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>45235</v>
@@ -499,17 +460,11 @@
       <c r="C6" s="2">
         <v>1800</v>
       </c>
-      <c r="D6" s="2">
-        <v>105</v>
-      </c>
-      <c r="E6">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>45250</v>
@@ -517,17 +472,11 @@
       <c r="C7" s="2">
         <v>1900</v>
       </c>
-      <c r="D7" s="2">
-        <v>112</v>
-      </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>45184</v>
@@ -535,17 +484,11 @@
       <c r="C8" s="2">
         <v>2500</v>
       </c>
-      <c r="D8" s="2">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>45197</v>
@@ -553,17 +496,11 @@
       <c r="C9" s="2">
         <v>2650</v>
       </c>
-      <c r="D9" s="2">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>45214</v>
@@ -571,17 +508,11 @@
       <c r="C10" s="2">
         <v>2700</v>
       </c>
-      <c r="D10" s="2">
-        <v>110</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>45228</v>
@@ -589,17 +520,11 @@
       <c r="C11" s="2">
         <v>2850</v>
       </c>
-      <c r="D11" s="2">
-        <v>108</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>45242</v>
@@ -607,17 +532,11 @@
       <c r="C12" s="2">
         <v>3000</v>
       </c>
-      <c r="D12" s="2">
-        <v>125</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>45255</v>
@@ -625,17 +544,11 @@
       <c r="C13" s="2">
         <v>3200</v>
       </c>
-      <c r="D13" s="2">
-        <v>118</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>45179</v>
@@ -643,17 +556,11 @@
       <c r="C14" s="2">
         <v>3500</v>
       </c>
-      <c r="D14" s="2">
-        <v>105</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>45189</v>
@@ -661,17 +568,11 @@
       <c r="C15" s="2">
         <v>3600</v>
       </c>
-      <c r="D15" s="2">
-        <v>112</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>45204</v>
@@ -679,17 +580,11 @@
       <c r="C16" s="2">
         <v>4000</v>
       </c>
-      <c r="D16" s="2">
-        <v>115</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>45220</v>
@@ -697,17 +592,11 @@
       <c r="C17" s="2">
         <v>4100</v>
       </c>
-      <c r="D17" s="2">
-        <v>110</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>45238</v>
@@ -715,17 +604,11 @@
       <c r="C18" s="2">
         <v>3700</v>
       </c>
-      <c r="D18" s="2">
-        <v>110</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>45257</v>
@@ -733,17 +616,11 @@
       <c r="C19" s="2">
         <v>3800</v>
       </c>
-      <c r="D19" s="2">
-        <v>107</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>45181</v>
@@ -751,17 +628,11 @@
       <c r="C20" s="2">
         <v>1800</v>
       </c>
-      <c r="D20" s="2">
-        <v>106</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <v>45199</v>
@@ -769,17 +640,11 @@
       <c r="C21" s="2">
         <v>1900</v>
       </c>
-      <c r="D21" s="2">
-        <v>108</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>45210</v>
@@ -787,17 +652,11 @@
       <c r="C22" s="2">
         <v>1950</v>
       </c>
-      <c r="D22" s="2">
-        <v>105</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>45222</v>
@@ -805,17 +664,11 @@
       <c r="C23" s="2">
         <v>2100</v>
       </c>
-      <c r="D23" s="2">
-        <v>106.5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
         <v>45232</v>
@@ -823,17 +676,11 @@
       <c r="C24" s="2">
         <v>2250</v>
       </c>
-      <c r="D24" s="2">
-        <v>110</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>45248</v>
@@ -841,13 +688,7 @@
       <c r="C25" s="2">
         <v>2350</v>
       </c>
-      <c r="D25" s="2">
-        <v>112</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Data/vendedores.xlsx
+++ b/Data/vendedores.xlsx
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Nome</t>
   </si>
   <si>
     <t>DataUltimaVenda</t>
+  </si>
+  <si>
+    <t>ValorVendido</t>
+  </si>
+  <si>
+    <t>DescontoAplicado</t>
+  </si>
+  <si>
+    <t>JurosAplicado</t>
   </si>
   <si>
     <t>Ana Silva</t>
@@ -42,9 +51,6 @@
   </si>
   <si>
     <t>João Martins</t>
-  </si>
-  <si>
-    <t>Valor Vendido</t>
   </si>
 </sst>
 </file>
@@ -91,11 +97,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -377,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,10 +393,11 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,12 +405,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>45174</v>
@@ -412,11 +424,16 @@
       <c r="C2" s="2">
         <v>1500</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>45191</v>
@@ -424,11 +441,16 @@
       <c r="C3" s="2">
         <v>1750</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>45209</v>
@@ -436,11 +458,16 @@
       <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>45224</v>
@@ -448,11 +475,16 @@
       <c r="C5" s="2">
         <v>2200</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>45235</v>
@@ -460,11 +492,16 @@
       <c r="C6" s="2">
         <v>1800</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>45250</v>
@@ -472,11 +509,16 @@
       <c r="C7" s="2">
         <v>1900</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>45184</v>
@@ -484,11 +526,16 @@
       <c r="C8" s="2">
         <v>2500</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>45197</v>
@@ -496,11 +543,16 @@
       <c r="C9" s="2">
         <v>2650</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>45214</v>
@@ -508,11 +560,16 @@
       <c r="C10" s="2">
         <v>2700</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>45228</v>
@@ -520,11 +577,16 @@
       <c r="C11" s="2">
         <v>2850</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>45242</v>
@@ -532,11 +594,16 @@
       <c r="C12" s="2">
         <v>3000</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>45255</v>
@@ -544,11 +611,16 @@
       <c r="C13" s="2">
         <v>3200</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>45179</v>
@@ -556,11 +628,16 @@
       <c r="C14" s="2">
         <v>3500</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>45189</v>
@@ -568,11 +645,16 @@
       <c r="C15" s="2">
         <v>3600</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>45204</v>
@@ -580,11 +662,16 @@
       <c r="C16" s="2">
         <v>4000</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>45220</v>
@@ -592,11 +679,16 @@
       <c r="C17" s="2">
         <v>4100</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>45238</v>
@@ -604,11 +696,16 @@
       <c r="C18" s="2">
         <v>3700</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
         <v>45257</v>
@@ -616,11 +713,16 @@
       <c r="C19" s="2">
         <v>3800</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>45181</v>
@@ -628,11 +730,16 @@
       <c r="C20" s="2">
         <v>1800</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>45199</v>
@@ -640,11 +747,16 @@
       <c r="C21" s="2">
         <v>1900</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>45210</v>
@@ -652,11 +764,16 @@
       <c r="C22" s="2">
         <v>1950</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>45222</v>
@@ -664,11 +781,16 @@
       <c r="C23" s="2">
         <v>2100</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>45232</v>
@@ -676,11 +798,16 @@
       <c r="C24" s="2">
         <v>2250</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>45248</v>
@@ -688,7 +815,12 @@
       <c r="C25" s="2">
         <v>2350</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Data/vendedores.xlsx
+++ b/Data/vendedores.xlsx
@@ -26,21 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>DataUltimaVenda</t>
-  </si>
-  <si>
-    <t>ValorVendido</t>
-  </si>
-  <si>
-    <t>DescontoAplicado</t>
-  </si>
-  <si>
-    <t>JurosAplicado</t>
-  </si>
-  <si>
     <t>Ana Silva</t>
   </si>
   <si>
@@ -51,6 +36,21 @@
   </si>
   <si>
     <t>João Martins</t>
+  </si>
+  <si>
+    <t>Valor da Venda</t>
+  </si>
+  <si>
+    <t>Data da Ultima Venda</t>
+  </si>
+  <si>
+    <t>Nome do Vendedor</t>
+  </si>
+  <si>
+    <t>% de Desconto Aplicado</t>
+  </si>
+  <si>
+    <t>% de Juros Aplicado</t>
   </si>
 </sst>
 </file>
@@ -93,18 +93,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,41 +385,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>45174</v>
@@ -424,16 +428,16 @@
       <c r="C2" s="2">
         <v>1500</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>45191</v>
@@ -441,16 +445,16 @@
       <c r="C3" s="2">
         <v>1750</v>
       </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
+      <c r="D3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>45209</v>
@@ -458,16 +462,16 @@
       <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>45224</v>
@@ -475,16 +479,16 @@
       <c r="C5" s="2">
         <v>2200</v>
       </c>
-      <c r="D5" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
+      <c r="D5" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>45235</v>
@@ -492,16 +496,16 @@
       <c r="C6" s="2">
         <v>1800</v>
       </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.3</v>
+      <c r="D6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>45250</v>
@@ -509,16 +513,16 @@
       <c r="C7" s="2">
         <v>1900</v>
       </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0.25</v>
+      <c r="D7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>45184</v>
@@ -526,16 +530,16 @@
       <c r="C8" s="2">
         <v>2500</v>
       </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>45197</v>
@@ -543,16 +547,16 @@
       <c r="C9" s="2">
         <v>2650</v>
       </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0.3</v>
+      <c r="D9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>45214</v>
@@ -560,16 +564,16 @@
       <c r="C10" s="2">
         <v>2700</v>
       </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
+      <c r="D10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>45228</v>
@@ -577,16 +581,16 @@
       <c r="C11" s="2">
         <v>2850</v>
       </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0.15</v>
+      <c r="D11" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>45242</v>
@@ -594,16 +598,16 @@
       <c r="C12" s="2">
         <v>3000</v>
       </c>
-      <c r="D12" s="2">
-        <v>25</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>45255</v>
@@ -611,16 +615,16 @@
       <c r="C13" s="2">
         <v>3200</v>
       </c>
-      <c r="D13" s="2">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0.4</v>
+      <c r="D13" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>45179</v>
@@ -628,16 +632,16 @@
       <c r="C14" s="2">
         <v>3500</v>
       </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>45189</v>
@@ -645,16 +649,16 @@
       <c r="C15" s="2">
         <v>3600</v>
       </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>0.45</v>
+      <c r="D15" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>45204</v>
@@ -662,16 +666,16 @@
       <c r="C16" s="2">
         <v>4000</v>
       </c>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
+      <c r="D16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>45220</v>
@@ -679,16 +683,16 @@
       <c r="C17" s="2">
         <v>4100</v>
       </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0.35</v>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.4999999999999996E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>45238</v>
@@ -696,16 +700,16 @@
       <c r="C18" s="2">
         <v>3700</v>
       </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0.3</v>
+      <c r="D18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>45257</v>
@@ -713,16 +717,16 @@
       <c r="C19" s="2">
         <v>3800</v>
       </c>
-      <c r="D19" s="2">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0.2</v>
+      <c r="D19" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>45181</v>
@@ -730,16 +734,16 @@
       <c r="C20" s="2">
         <v>1800</v>
       </c>
-      <c r="D20" s="2">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
+      <c r="D20" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>45199</v>
@@ -747,16 +751,16 @@
       <c r="C21" s="2">
         <v>1900</v>
       </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0.25</v>
+      <c r="D21" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>45210</v>
@@ -764,16 +768,16 @@
       <c r="C22" s="2">
         <v>1950</v>
       </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>0.1</v>
+      <c r="D22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>45222</v>
@@ -781,16 +785,16 @@
       <c r="C23" s="2">
         <v>2100</v>
       </c>
-      <c r="D23" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="E23">
-        <v>0.3</v>
+      <c r="D23" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>45232</v>
@@ -798,16 +802,16 @@
       <c r="C24" s="2">
         <v>2250</v>
       </c>
-      <c r="D24" s="2">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>0.2</v>
+      <c r="D24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>45248</v>
@@ -815,11 +819,11 @@
       <c r="C25" s="2">
         <v>2350</v>
       </c>
-      <c r="D25" s="2">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>0.15</v>
+      <c r="D25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
